--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_winter_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_winter_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>jssJ24rdekXnSXI</t>
+    <t>DaalH5bHY7qhq4x</t>
   </si>
   <si>
     <t>000018853.csv</t>
@@ -1544,7 +1544,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_16', 'sfh_35', 'sfh_30', 'sfh_5', 'sfh_9']</t>
+    <t>['sfh_2', 'sfh_28', 'sfh_5', 'sfh_35', 'sfh_33']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2799,7 +2799,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3148,7 +3148,7 @@
         <v>483</v>
       </c>
       <c r="IN2">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3221,11 +3221,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3648,7 +3648,7 @@
         <v>483</v>
       </c>
       <c r="IN3">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3721,11 +3721,14 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3734,7 +3737,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4130,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4143,11 +4146,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4156,7 +4159,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4315,7 +4318,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4597,7 +4600,7 @@
         <v>483</v>
       </c>
       <c r="IN5">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4654,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4663,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>494</v>
@@ -4730,11 +4733,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4743,7 +4746,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4902,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5130,7 +5133,7 @@
         <v>483</v>
       </c>
       <c r="IN6">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5190,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5203,14 +5206,14 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>328</v>
       </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5219,7 +5222,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5606,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5615,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5628,7 +5631,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:290">
@@ -6050,7 +6053,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
@@ -6222,7 +6225,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6504,7 +6507,7 @@
         <v>483</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6555,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6564,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>495</v>
@@ -6604,7 +6607,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
@@ -6761,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -6953,7 +6956,7 @@
         <v>483</v>
       </c>
       <c r="IN10">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7004,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7013,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7026,14 +7029,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7378,7 +7378,7 @@
         <v>483</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7451,7 +7451,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
@@ -7623,7 +7623,7 @@
         <v>42</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM12" t="s">
         <v>496</v>
@@ -8032,7 +8032,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
@@ -8204,7 +8204,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8486,7 +8486,7 @@
         <v>483</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8559,11 +8559,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8572,7 +8572,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8731,7 +8731,7 @@
         <v>51</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8986,7 +8986,7 @@
         <v>483</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -9059,7 +9059,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
       </c>
       <c r="H15">
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9408,7 +9408,7 @@
         <v>483</v>
       </c>
       <c r="IN15">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9481,7 +9481,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
@@ -9653,7 +9653,7 @@
         <v>45</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9935,7 +9935,7 @@
         <v>483</v>
       </c>
       <c r="IN16">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9992,7 +9992,7 @@
         <v>45</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:281">
@@ -10014,7 +10014,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
@@ -10186,7 +10186,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10441,7 +10441,7 @@
         <v>483</v>
       </c>
       <c r="IN17">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:281">
@@ -10514,11 +10514,8 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>328</v>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -10674,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10866,7 +10863,7 @@
         <v>483</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10917,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10926,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:281">
@@ -10939,7 +10936,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
@@ -11096,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11339,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11348,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:281">
@@ -11361,11 +11358,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11374,7 +11371,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11533,7 +11530,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11839,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11848,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:281">
@@ -11861,7 +11858,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
@@ -12033,7 +12030,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12288,7 +12285,7 @@
         <v>483</v>
       </c>
       <c r="IN21">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12339,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12348,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:281">
@@ -12361,7 +12358,7 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
@@ -12518,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12710,7 +12707,7 @@
         <v>483</v>
       </c>
       <c r="IN22">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12761,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12770,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:281">
@@ -12783,7 +12780,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -12955,7 +12952,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13237,7 +13234,7 @@
         <v>483</v>
       </c>
       <c r="IN23">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13294,7 +13291,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13309,7 +13306,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>497</v>
@@ -13349,11 +13346,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>4</v>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13362,7 +13359,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13521,7 +13518,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13776,7 +13773,7 @@
         <v>483</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13827,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13836,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:281">
@@ -13849,7 +13846,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -14021,7 +14018,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14276,7 +14273,7 @@
         <v>483</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14327,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14336,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:281">
@@ -14349,7 +14346,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
@@ -14521,7 +14518,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14860,7 +14857,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14869,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:281">
@@ -14882,7 +14879,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
@@ -15054,7 +15051,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15336,7 +15333,7 @@
         <v>483</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15387,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15396,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:281">
@@ -15409,11 +15406,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>4</v>
+      <c r="G28">
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15422,7 +15419,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15581,7 +15578,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15863,7 +15860,7 @@
         <v>483</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15920,7 +15917,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15929,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:281">
@@ -15942,7 +15939,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
@@ -16114,7 +16111,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16342,7 +16339,7 @@
         <v>483</v>
       </c>
       <c r="IN29">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16399,7 +16396,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16408,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:281">
@@ -16421,7 +16418,10 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
@@ -16578,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16770,7 +16770,7 @@
         <v>483</v>
       </c>
       <c r="IN30">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:281">
@@ -16843,7 +16843,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
@@ -17000,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17192,7 +17192,7 @@
         <v>483</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17243,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:281">
@@ -17265,11 +17265,8 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>328</v>
+      <c r="G32">
+        <v>3</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -17425,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17617,7 +17614,7 @@
         <v>483</v>
       </c>
       <c r="IN32">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17668,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -17677,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17690,7 +17687,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
@@ -17847,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18090,7 +18087,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18099,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18112,7 +18109,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4</v>
       </c>
       <c r="H34">
@@ -18284,7 +18281,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18566,7 +18563,7 @@
         <v>483</v>
       </c>
       <c r="IN34">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18617,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18626,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>498</v>
@@ -18693,7 +18690,10 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19093,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19115,11 +19115,11 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19128,7 +19128,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19287,7 +19287,7 @@
         <v>45</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19629,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19642,14 +19642,14 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>328</v>
       </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19658,7 +19658,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -19802,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20045,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20067,7 +20067,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
@@ -20239,7 +20239,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20594,7 +20594,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -20766,7 +20766,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21105,7 +21105,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21127,7 +21127,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21299,7 +21299,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21674,7 +21674,7 @@
         <v>502</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>503</v>
@@ -21793,7 +21793,7 @@
         <v>483</v>
       </c>
       <c r="S2">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="T2">
         <v>1</v>
